--- a/biology/Botanique/Noms_des_ordres_en_APG_II/Noms_des_ordres_en_APG_II.xlsx
+++ b/biology/Botanique/Noms_des_ordres_en_APG_II/Noms_des_ordres_en_APG_II.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une liste de noms des ordres. Les noms gras sont les noms courantes en la classification APG II (2003). Les noms italiques ne sont pas assignés en APG II.
 Acanthales Lindl. (1833) = Lamiales
